--- a/ig/StructureDefinition-qc-ethnicity.xlsx
+++ b/ig/StructureDefinition-qc-ethnicity.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="74">
   <si>
     <t>Path</t>
   </si>
@@ -143,7 +143,7 @@
     <t>Qc Ethnicity</t>
   </si>
   <si>
-    <t>An Extension</t>
+    <t>Ethnicity of the patient</t>
   </si>
   <si>
     <t>*</t>
@@ -181,6 +181,9 @@
   <si>
     <t xml:space="preserve">Extension
 </t>
+  </si>
+  <si>
+    <t>An Extension</t>
   </si>
   <si>
     <t xml:space="preserve">value:url}
@@ -778,7 +781,7 @@
         <v>36</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -817,19 +820,19 @@
         <v>37</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AC4" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>38</v>
@@ -849,7 +852,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -872,16 +875,16 @@
         <v>37</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -889,7 +892,7 @@
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="R5" t="s" s="2">
         <v>37</v>
@@ -931,7 +934,7 @@
         <v>37</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>39</v>
@@ -946,12 +949,12 @@
         <v>37</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -974,13 +977,13 @@
         <v>37</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1007,13 +1010,13 @@
         <v>37</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z6" t="s" s="2">
         <v>37</v>
@@ -1031,7 +1034,7 @@
         <v>37</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>38</v>
@@ -1043,10 +1046,10 @@
         <v>37</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
